--- a/驻地战/New Microsoft Excel Worksheet.xlsx
+++ b/驻地战/New Microsoft Excel Worksheet.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="216">
   <si>
     <t>池小晚</t>
   </si>
@@ -491,6 +493,186 @@
   </si>
   <si>
     <t>计数项:CA</t>
+  </si>
+  <si>
+    <t>魔法少女杜芸松</t>
+  </si>
+  <si>
+    <t>摩诃大梵天</t>
+  </si>
+  <si>
+    <t>框框</t>
+  </si>
+  <si>
+    <t>不夜羽</t>
+  </si>
+  <si>
+    <t>那年今若、</t>
+  </si>
+  <si>
+    <t>在下唐银</t>
+  </si>
+  <si>
+    <t>叶菡</t>
+  </si>
+  <si>
+    <t>九袋丐</t>
+  </si>
+  <si>
+    <t>纯情少妇马芳玲</t>
+  </si>
+  <si>
+    <t>白析</t>
+  </si>
+  <si>
+    <t>徐耶比</t>
+  </si>
+  <si>
+    <t>萝卜土豆丝</t>
+  </si>
+  <si>
+    <t>生气的小黄瓜</t>
+  </si>
+  <si>
+    <t>艾莉亞史塔克</t>
+  </si>
+  <si>
+    <t>苍镜</t>
+  </si>
+  <si>
+    <t>纯洁友善的暮夏</t>
+  </si>
+  <si>
+    <t>风暖伤</t>
+  </si>
+  <si>
+    <t>荡荡</t>
+  </si>
+  <si>
+    <t>唐舞桐灬</t>
+  </si>
+  <si>
+    <t>其实想玩刀客</t>
+  </si>
+  <si>
+    <t>东瀛浪人展梦魂</t>
+  </si>
+  <si>
+    <t>潇洒仗剑天下</t>
+  </si>
+  <si>
+    <t>策划∶</t>
+  </si>
+  <si>
+    <t>空虚公子萧四无</t>
+  </si>
+  <si>
+    <t>剑丶未凉</t>
+  </si>
+  <si>
+    <t>友善的小内衣</t>
+  </si>
+  <si>
+    <t>紫舞流年</t>
+  </si>
+  <si>
+    <t>丐帮萌主</t>
+  </si>
+  <si>
+    <t>煌煌</t>
+  </si>
+  <si>
+    <t>粉嫩嫩的香蕉酱</t>
+  </si>
+  <si>
+    <t>儒丶张良</t>
+  </si>
+  <si>
+    <t>木易丶凝烟</t>
+  </si>
+  <si>
+    <t>二瞳</t>
+  </si>
+  <si>
+    <t>萌萌哒的草莓酱</t>
+  </si>
+  <si>
+    <t>青城爱未恋</t>
+  </si>
+  <si>
+    <t>雪丶未凝</t>
+  </si>
+  <si>
+    <t>濯清莲而不妖</t>
+  </si>
+  <si>
+    <t>等我出轻语</t>
+  </si>
+  <si>
+    <t>蝶舞旧梦</t>
+  </si>
+  <si>
+    <t>一丿登</t>
+  </si>
+  <si>
+    <t>水影悠兰</t>
+  </si>
+  <si>
+    <t>开封拍卖行</t>
+  </si>
+  <si>
+    <t>七情剑伶慕容英</t>
+  </si>
+  <si>
+    <t>那年红颜</t>
+  </si>
+  <si>
+    <t>炖猪肘丶</t>
+  </si>
+  <si>
+    <t>昔昔</t>
+  </si>
+  <si>
+    <t>薄霭</t>
+  </si>
+  <si>
+    <t>洪时雪</t>
+  </si>
+  <si>
+    <t>、征戮天下</t>
+  </si>
+  <si>
+    <t>Yennefer</t>
+  </si>
+  <si>
+    <t>奶小牛丶</t>
+  </si>
+  <si>
+    <t>紫雨幽雲</t>
+  </si>
+  <si>
+    <t>友善的咸鱼白</t>
+  </si>
+  <si>
+    <t>五六柒</t>
+  </si>
+  <si>
+    <t>踏马清月夜</t>
+  </si>
+  <si>
+    <t>锦衣卫知秋</t>
+  </si>
+  <si>
+    <t>Actors丶纤旧</t>
+  </si>
+  <si>
+    <t>一息衍一</t>
+  </si>
+  <si>
+    <t>淡若清风過丶</t>
+  </si>
+  <si>
+    <t>等风与你</t>
   </si>
 </sst>
 </file>
@@ -526,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,11 +717,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -554,13 +739,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -590,10 +768,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[New Microsoft Excel Worksheet.xlsx]Sheet2!数据透视表5</c:name>
-    <c:fmtId val="2"/>
-  </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
@@ -653,15 +827,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>汇总</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>系列1</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -674,57 +840,51 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$4:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>丐帮</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>唐门</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>天香</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>太白</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>真武</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>神威</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>丐帮</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>唐门</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>天香</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>太白</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>真武</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>神威</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$4:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -894,6 +1054,644 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[New Microsoft Excel Worksheet.xlsx]Sheet4!数据透视表5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>丐帮</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>五毒</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>唐门</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>天香</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>太白</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>真武</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>神威</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F259-46A2-BFBA-FEF8E10D54C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="277969872"/>
+        <c:axId val="277875808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="277969872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277875808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="277875808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277969872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[New Microsoft Excel Worksheet.xlsx]Sheet4!数据透视表5</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>丐帮</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>五毒</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>唐门</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>天香</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>太白</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>真武</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>神威</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F85-4ADF-8CE5-A2CBE740EBA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="277969872"/>
+        <c:axId val="277875808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="277969872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277875808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="277875808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277969872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
@@ -952,7 +1750,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1492,20 +3376,102 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>159726</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42527.581760185189" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="40">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42527.785248263892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:E41" sheet="Sheet1"/>
+    <worksheetSource ref="A1:D61" sheet="Sheet3"/>
   </cacheSource>
-  <cacheFields count="1">
+  <cacheFields count="4">
+    <cacheField name="RANK" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="70"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="VALUE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11578" maxValue="16035"/>
+    </cacheField>
     <cacheField name="CA" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="7">
+        <s v="神威"/>
+        <s v="太白"/>
         <s v="天香"/>
+        <s v="丐帮"/>
         <s v="真武"/>
-        <s v="太白"/>
-        <s v="丐帮"/>
+        <s v="五毒"/>
         <s v="唐门"/>
-        <s v="神威"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1518,142 +3484,404 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
   <r>
+    <n v="1"/>
+    <s v="策划∶"/>
+    <n v="16035"/>
     <x v="0"/>
   </r>
   <r>
+    <n v="2"/>
+    <s v="东瀛浪人展梦魂"/>
+    <n v="15472"/>
     <x v="1"/>
   </r>
   <r>
+    <n v="3"/>
+    <s v="魔法少女杜芸松"/>
+    <n v="15352"/>
     <x v="2"/>
   </r>
   <r>
+    <n v="4"/>
+    <s v="空虚公子萧四无"/>
+    <n v="15340"/>
     <x v="3"/>
   </r>
   <r>
+    <n v="5"/>
+    <s v="炖猪肘丶"/>
+    <n v="15225"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="七情剑伶慕容英"/>
+    <n v="14850"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="摩诃大梵天"/>
+    <n v="14774"/>
     <x v="0"/>
   </r>
   <r>
+    <n v="8"/>
+    <s v="粉嫩嫩的香蕉酱"/>
+    <n v="14656"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="框框"/>
+    <n v="14630"/>
     <x v="2"/>
   </r>
   <r>
+    <n v="10"/>
+    <s v="苍镜"/>
+    <n v="14483"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="友善的小内衣"/>
+    <n v="14442"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="紫雨幽雲"/>
+    <n v="14422"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="不夜羽"/>
+    <n v="14277"/>
     <x v="4"/>
   </r>
   <r>
+    <n v="14"/>
+    <s v="昔昔"/>
+    <n v="14191"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="荡荡"/>
+    <n v="14146"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="友善的咸鱼白"/>
+    <n v="14112"/>
     <x v="2"/>
   </r>
   <r>
+    <n v="17"/>
+    <s v="潇洒仗剑天下"/>
+    <n v="14070"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="青城爱未恋"/>
+    <n v="14067"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="纯洁友善的暮夏"/>
+    <n v="14011"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="洪时雪"/>
+    <n v="13914"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="开封拍卖行"/>
+    <n v="13886"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="那年今若、"/>
+    <n v="13809"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="在下唐银"/>
+    <n v="13764"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="萌萌哒的草莓酱"/>
+    <n v="13661"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="那年红颜"/>
+    <n v="13643"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="五六柒"/>
+    <n v="13642"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="淡若清风過丶"/>
+    <n v="13625"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="其实想玩刀客"/>
+    <n v="13524"/>
     <x v="4"/>
   </r>
   <r>
+    <n v="29"/>
+    <s v="煌煌"/>
+    <n v="13489"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="剑丶未凉"/>
+    <n v="13487"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="蝶舞旧梦"/>
+    <n v="13155"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Yennefer"/>
+    <n v="13044"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="儒丶张良"/>
+    <n v="13036"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="唐舞桐灬"/>
+    <n v="13021"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="叶菡"/>
+    <n v="12946"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="木易丶凝烟"/>
+    <n v="12919"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="奶小牛丶"/>
+    <n v="12837"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="锦衣卫知秋"/>
+    <n v="12831"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="紫舞流年"/>
+    <n v="12762"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="九袋丐"/>
+    <n v="12747"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="、征戮天下"/>
+    <n v="12736"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="风暖伤"/>
+    <n v="12727"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="纯情少妇马芳玲"/>
+    <n v="12700"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="濯清莲而不妖"/>
+    <n v="12603"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="踏马清月夜"/>
+    <n v="12564"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="等我出轻语"/>
+    <n v="12417"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="白析"/>
+    <n v="12345"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="一丿登"/>
+    <n v="12317"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="薄霭"/>
+    <n v="12262"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Actors丶纤旧"/>
+    <n v="12214"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="徐耶比"/>
+    <n v="12084"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="水影悠兰"/>
+    <n v="12074"/>
     <x v="5"/>
   </r>
   <r>
+    <n v="63"/>
+    <s v="一息衍一"/>
+    <n v="12016"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="丐帮萌主"/>
+    <n v="12007"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="萝卜土豆丝"/>
+    <n v="12001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="生气的小黄瓜"/>
+    <n v="11915"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="雪丶未凝"/>
+    <n v="11800"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="2"/>
-  </r>
-  <r>
+    <n v="68"/>
+    <s v="二瞳"/>
+    <n v="11792"/>
     <x v="0"/>
   </r>
   <r>
+    <n v="69"/>
+    <s v="艾莉亞史塔克"/>
+    <n v="11790"/>
     <x v="5"/>
   </r>
   <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
+    <n v="70"/>
+    <s v="等风与你"/>
+    <n v="11578"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
+      <items count="7">
         <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
         <item x="4"/>
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -1663,9 +3891,9 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -1684,12 +3912,15 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="计数项:CA" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="计数项:CA" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
@@ -1992,7 +4223,1715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A1:H144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15089</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>VLOOKUP(B2,$G$2:$H$150,2,0)</f>
+        <v>天香</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>14936</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>VLOOKUP(B3,$G$2:$H$150,2,0)</f>
+        <v>真武</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14501</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4:E41" si="0">VLOOKUP(B4,$G$2:$H$150,2,0)</f>
+        <v>太白</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14235</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>丐帮</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13723</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13716</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>太白</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13705</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>唐门</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13703</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>太白</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13615</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>VLOOKUP(B2,$G$2:$H$150,1,0)</f>
+        <v>池小晚</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13473</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>神威</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13437</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>太白</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13422</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>太白</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13377</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13353</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>神威</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13265</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>神威</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13260</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13205</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>神威</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13092</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13034</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>丐帮</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13022</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>丐帮</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12928</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>神威</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12832</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>真武</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12822</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>丐帮</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12786</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12646</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12391</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>真武</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12371</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12270</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>太白</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12220</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12196</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>12157</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>太白</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>12132</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>真武</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12108</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>丐帮</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>12078</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>真武</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11840</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>真武</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>11836</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>丐帮</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11821</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>丐帮</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>11717</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天香</v>
+      </c>
+      <c r="G39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11697</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>唐门</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11596</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>唐门</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>101</v>
+      </c>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>107</v>
+      </c>
+      <c r="H90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>108</v>
+      </c>
+      <c r="H91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>110</v>
+      </c>
+      <c r="H93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>113</v>
+      </c>
+      <c r="H96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>114</v>
+      </c>
+      <c r="H97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>117</v>
+      </c>
+      <c r="H102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>118</v>
+      </c>
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>119</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>120</v>
+      </c>
+      <c r="H107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>121</v>
+      </c>
+      <c r="H108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>122</v>
+      </c>
+      <c r="H109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>123</v>
+      </c>
+      <c r="H110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>124</v>
+      </c>
+      <c r="H111" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>125</v>
+      </c>
+      <c r="H112" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>126</v>
+      </c>
+      <c r="H113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>127</v>
+      </c>
+      <c r="H115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>128</v>
+      </c>
+      <c r="H116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>129</v>
+      </c>
+      <c r="H117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>131</v>
+      </c>
+      <c r="H119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>132</v>
+      </c>
+      <c r="H120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>133</v>
+      </c>
+      <c r="H121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>135</v>
+      </c>
+      <c r="H123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>137</v>
+      </c>
+      <c r="H126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>138</v>
+      </c>
+      <c r="H127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>139</v>
+      </c>
+      <c r="H128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>141</v>
+      </c>
+      <c r="H130" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>142</v>
+      </c>
+      <c r="H131" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>143</v>
+      </c>
+      <c r="H132" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>144</v>
+      </c>
+      <c r="H133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>4</v>
+      </c>
+      <c r="H135" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>145</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>146</v>
+      </c>
+      <c r="H137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>147</v>
+      </c>
+      <c r="H139" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>148</v>
+      </c>
+      <c r="H140" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>149</v>
+      </c>
+      <c r="H141" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>150</v>
+      </c>
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>38</v>
+      </c>
+      <c r="H143" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E41">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"唐门"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"唐门"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -2017,12 +5956,12 @@
         <v>40</v>
       </c>
       <c r="B4" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -2030,34 +5969,916 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16035</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15472</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15352</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15340</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15225</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14850</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14774</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14656</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14630</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14483</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14442</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14422</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14277</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14191</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14146</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14112</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14070</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14067</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14011</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13914</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13886</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13809</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13764</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13661</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13643</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13642</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="1">
+        <v>13625</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13524</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13489</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13487</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13155</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13044</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13036</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13021</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="1">
+        <v>12946</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12919</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>47</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12837</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12831</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12762</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="1">
+        <v>12747</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>51</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="1">
+        <v>12736</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>52</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="1">
+        <v>12727</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>53</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1">
+        <v>12700</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>54</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="1">
+        <v>12603</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12564</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>56</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12417</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>57</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>58</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="1">
+        <v>12317</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12262</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12214</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>61</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="1">
+        <v>12084</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>62</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="1">
+        <v>12074</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="1">
+        <v>12016</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="1">
+        <v>12007</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>65</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="1">
+        <v>12001</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>66</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="1">
+        <v>11915</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>67</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="1">
+        <v>11800</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>68</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="1">
+        <v>11792</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>69</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="1">
+        <v>11790</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>70</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11578</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2065,1710 +6886,955 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>178</v>
       </c>
       <c r="C2" s="1">
-        <v>15089</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>VLOOKUP(B2,$G$2:$H$150,2,0)</f>
-        <v>天香</v>
+        <v>16035</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13155</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+      <c r="B3" t="s">
+        <v>176</v>
       </c>
       <c r="C3" s="1">
-        <v>14936</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>VLOOKUP(B3,$G$2:$H$150,2,0)</f>
-        <v>真武</v>
+        <v>15472</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1">
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13044</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
+      <c r="B4" t="s">
+        <v>156</v>
       </c>
       <c r="C4" s="1">
-        <v>14501</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E41" si="0">VLOOKUP(B4,$G$2:$H$150,2,0)</f>
-        <v>太白</v>
+        <v>15352</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1">
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13036</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
+      <c r="B5" t="s">
+        <v>179</v>
       </c>
       <c r="C5" s="1">
-        <v>14235</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮</v>
+        <v>15340</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1">
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13021</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
+      <c r="B6" t="s">
+        <v>200</v>
       </c>
       <c r="C6" s="1">
-        <v>13723</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
+        <v>15225</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1">
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12946</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
+      <c r="B7" t="s">
+        <v>198</v>
       </c>
       <c r="C7" s="1">
-        <v>13716</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>太白</v>
+        <v>14850</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1">
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12919</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
+      <c r="B8" t="s">
+        <v>157</v>
       </c>
       <c r="C8" s="1">
-        <v>13705</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>唐门</v>
+        <v>14774</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1">
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12837</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
+      <c r="B9" t="s">
+        <v>185</v>
       </c>
       <c r="C9" s="1">
-        <v>13703</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>太白</v>
+        <v>14656</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1">
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12831</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
+      <c r="B10" t="s">
+        <v>158</v>
       </c>
       <c r="C10" s="1">
-        <v>13615</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>唐门</v>
+        <v>14630</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1">
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12762</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
+      <c r="B11" t="s">
+        <v>170</v>
       </c>
       <c r="C11" s="1">
-        <v>13473</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>神威</v>
+        <v>14483</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1">
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12747</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
+      <c r="B12" t="s">
+        <v>181</v>
       </c>
       <c r="C12" s="1">
-        <v>13437</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>太白</v>
+        <v>14442</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1">
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12736</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>207</v>
       </c>
       <c r="C13" s="1">
-        <v>13422</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>太白</v>
+        <v>14422</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1">
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12727</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
+      <c r="B14" t="s">
+        <v>159</v>
       </c>
       <c r="C14" s="1">
-        <v>13377</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
+        <v>14277</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1">
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12700</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
+      <c r="B15" t="s">
+        <v>201</v>
       </c>
       <c r="C15" s="1">
-        <v>13353</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>神威</v>
+        <v>14191</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1">
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12603</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
+      <c r="B16" t="s">
+        <v>173</v>
       </c>
       <c r="C16" s="1">
-        <v>13265</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>神威</v>
+        <v>14146</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1">
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="H16" s="1">
+        <v>12564</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
+      <c r="B17" t="s">
+        <v>208</v>
       </c>
       <c r="C17" s="1">
-        <v>13260</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
+        <v>14112</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1">
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H17" s="1">
+        <v>12417</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
+      <c r="B18" t="s">
+        <v>177</v>
       </c>
       <c r="C18" s="1">
-        <v>13205</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>神威</v>
+        <v>14070</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1">
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H18" s="1">
+        <v>12345</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
+      <c r="B19" t="s">
+        <v>190</v>
       </c>
       <c r="C19" s="1">
-        <v>13092</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
+        <v>14067</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1">
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="H19" s="1">
+        <v>12317</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
+      <c r="B20" t="s">
+        <v>171</v>
       </c>
       <c r="C20" s="1">
-        <v>13034</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮</v>
+        <v>14011</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1">
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H20" s="1">
+        <v>12262</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
+      <c r="B21" t="s">
+        <v>203</v>
       </c>
       <c r="C21" s="1">
-        <v>13022</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮</v>
+        <v>13914</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1">
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="1">
+        <v>12214</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
+      <c r="B22" t="s">
+        <v>197</v>
       </c>
       <c r="C22" s="1">
-        <v>12928</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>神威</v>
+        <v>13886</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1">
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H22" s="1">
+        <v>12084</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>2</v>
+      <c r="B23" t="s">
+        <v>160</v>
       </c>
       <c r="C23" s="1">
-        <v>12832</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>真武</v>
+        <v>13809</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1">
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H23" s="1">
+        <v>12074</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
+      <c r="B24" t="s">
+        <v>161</v>
       </c>
       <c r="C24" s="1">
-        <v>12822</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮</v>
+        <v>13764</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1">
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="H24" s="1">
+        <v>12016</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>3</v>
+      <c r="B25" t="s">
+        <v>189</v>
       </c>
       <c r="C25" s="1">
-        <v>12786</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>13661</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1">
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H25" s="1">
+        <v>12007</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
+      <c r="B26" t="s">
+        <v>199</v>
       </c>
       <c r="C26" s="1">
-        <v>12646</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
+        <v>13643</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1">
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H26" s="1">
+        <v>12001</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
+      <c r="B27" t="s">
+        <v>209</v>
       </c>
       <c r="C27" s="1">
-        <v>12391</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>真武</v>
+        <v>13642</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1">
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="1">
+        <v>11915</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
+      <c r="B28" t="s">
+        <v>214</v>
       </c>
       <c r="C28" s="1">
-        <v>12371</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
+        <v>13625</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1">
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="H28" s="1">
+        <v>11800</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
+      <c r="B29" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="1">
-        <v>12270</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>太白</v>
+        <v>13524</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1">
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H29" s="1">
+        <v>11792</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
+      <c r="B30" t="s">
+        <v>184</v>
       </c>
       <c r="C30" s="1">
-        <v>12220</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
+        <v>13489</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1">
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11790</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>37</v>
+      <c r="B31" t="s">
+        <v>180</v>
       </c>
       <c r="C31" s="1">
-        <v>12196</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="2" t="s">
+        <v>13487</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="1">
+        <v>11578</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1">
-        <v>12157</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>太白</v>
-      </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1">
-        <v>12132</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>真武</v>
-      </c>
-      <c r="G33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1">
-        <v>12108</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮</v>
-      </c>
-      <c r="G34" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1">
-        <v>12078</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>真武</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1">
-        <v>11840</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>真武</v>
-      </c>
-      <c r="G36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1">
-        <v>11836</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1">
-        <v>11821</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮</v>
-      </c>
-      <c r="G38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11717</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天香</v>
-      </c>
-      <c r="G39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="1">
-        <v>11697</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>唐门</v>
-      </c>
-      <c r="G40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1">
-        <v>11596</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>唐门</v>
-      </c>
-      <c r="G41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
-        <v>93</v>
-      </c>
-      <c r="H67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G68" t="s">
-        <v>94</v>
-      </c>
-      <c r="H68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G72" t="s">
-        <v>95</v>
-      </c>
-      <c r="H72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G73" t="s">
-        <v>96</v>
-      </c>
-      <c r="H73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
-        <v>97</v>
-      </c>
-      <c r="H76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
-        <v>98</v>
-      </c>
-      <c r="H77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G81" t="s">
-        <v>101</v>
-      </c>
-      <c r="H81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G83" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G84" t="s">
-        <v>102</v>
-      </c>
-      <c r="H84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G85" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G86" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
-      <c r="H87" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G89" t="s">
-        <v>106</v>
-      </c>
-      <c r="H89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G90" t="s">
-        <v>107</v>
-      </c>
-      <c r="H90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G91" t="s">
-        <v>108</v>
-      </c>
-      <c r="H91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G92" t="s">
-        <v>109</v>
-      </c>
-      <c r="H92" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G93" t="s">
-        <v>110</v>
-      </c>
-      <c r="H93" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G94" t="s">
-        <v>111</v>
-      </c>
-      <c r="H94" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G95" t="s">
-        <v>112</v>
-      </c>
-      <c r="H95" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G96" t="s">
-        <v>113</v>
-      </c>
-      <c r="H96" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
-      <c r="H97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G98" t="s">
-        <v>115</v>
-      </c>
-      <c r="H98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G100" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G101" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G102" t="s">
-        <v>117</v>
-      </c>
-      <c r="H102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G103" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G104" t="s">
-        <v>118</v>
-      </c>
-      <c r="H104" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G105" t="s">
-        <v>119</v>
-      </c>
-      <c r="H105" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G107" t="s">
-        <v>120</v>
-      </c>
-      <c r="H107" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H108" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G109" t="s">
-        <v>122</v>
-      </c>
-      <c r="H109" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G110" t="s">
-        <v>123</v>
-      </c>
-      <c r="H110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G111" t="s">
-        <v>124</v>
-      </c>
-      <c r="H111" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
-      <c r="H112" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G113" t="s">
-        <v>126</v>
-      </c>
-      <c r="H113" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G114" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G115" t="s">
-        <v>127</v>
-      </c>
-      <c r="H115" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G116" t="s">
-        <v>128</v>
-      </c>
-      <c r="H116" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G117" t="s">
-        <v>129</v>
-      </c>
-      <c r="H117" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G118" t="s">
-        <v>130</v>
-      </c>
-      <c r="H118" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G119" t="s">
-        <v>131</v>
-      </c>
-      <c r="H119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G120" t="s">
-        <v>132</v>
-      </c>
-      <c r="H120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G121" t="s">
-        <v>133</v>
-      </c>
-      <c r="H121" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G122" t="s">
-        <v>134</v>
-      </c>
-      <c r="H122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G123" t="s">
-        <v>135</v>
-      </c>
-      <c r="H123" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G124" t="s">
-        <v>136</v>
-      </c>
-      <c r="H124" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
-      <c r="H125" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G126" t="s">
-        <v>137</v>
-      </c>
-      <c r="H126" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G127" t="s">
-        <v>138</v>
-      </c>
-      <c r="H127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G128" t="s">
-        <v>139</v>
-      </c>
-      <c r="H128" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G129" t="s">
-        <v>140</v>
-      </c>
-      <c r="H129" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G130" t="s">
-        <v>141</v>
-      </c>
-      <c r="H130" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G131" t="s">
-        <v>142</v>
-      </c>
-      <c r="H131" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G132" t="s">
-        <v>143</v>
-      </c>
-      <c r="H132" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G133" t="s">
-        <v>144</v>
-      </c>
-      <c r="H133" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G134" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G135" t="s">
-        <v>4</v>
-      </c>
-      <c r="H135" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G136" t="s">
-        <v>145</v>
-      </c>
-      <c r="H136" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H137" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G139" t="s">
-        <v>147</v>
-      </c>
-      <c r="H139" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G140" t="s">
-        <v>148</v>
-      </c>
-      <c r="H140" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G141" t="s">
-        <v>149</v>
-      </c>
-      <c r="H141" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G142" t="s">
-        <v>150</v>
-      </c>
-      <c r="H142" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G143" t="s">
-        <v>38</v>
-      </c>
-      <c r="H143" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" t="s">
-        <v>40</v>
-      </c>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E41">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"唐门"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"唐门"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>